--- a/src/test/assets/exceldocuments/test062100.xlsx
+++ b/src/test/assets/exceldocuments/test062100.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -34,15 +34,18 @@
     <t xml:space="preserve">Identificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Relacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificacion_Jur</t>
+    <t xml:space="preserve">Identificacion_Cod</t>
   </si>
   <si>
     <t xml:space="preserve">Relacion_Cod</t>
   </si>
   <si>
+    <t xml:space="preserve">Identificacion_Gar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacion_Gar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grupo Producto</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">0190082024001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
   </si>
   <si>
     <t xml:space="preserve">0990379017001</t>
@@ -137,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -222,29 +223,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,94 +270,89 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -402,7 +397,6 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -467,7 +461,6 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -532,7 +525,6 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -597,7 +589,6 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -662,7 +653,6 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -727,7 +717,6 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -792,7 +781,6 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -857,7 +845,6 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -922,7 +909,6 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -987,7 +973,6 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -1052,7 +1037,6 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -1117,7 +1101,6 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
